--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc104_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc104_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -940,10 +952,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -987,28 +999,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1033,28 +1045,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1316,10 +1328,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1363,28 +1375,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1409,28 +1421,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1692,10 +1704,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="J54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1739,28 +1751,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1785,28 +1797,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1952,10 +1964,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="J63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1999,28 +2011,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2045,28 +2057,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2241,10 +2253,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="J73" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2288,28 +2300,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2334,28 +2346,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2559,10 +2571,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="J84" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2606,28 +2618,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2652,28 +2664,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2848,10 +2860,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="J94" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2895,28 +2907,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2941,28 +2953,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3137,10 +3149,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
+      <c r="J104" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K104" s="2" t="s">
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3184,28 +3196,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3230,28 +3242,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3484,10 +3496,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
+      <c r="J116" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K116" s="2" t="s">
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3531,28 +3543,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3577,28 +3589,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3744,10 +3756,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
+      <c r="J125" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3791,28 +3803,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3837,28 +3849,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3975,10 +3987,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
+      <c r="J133" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="2" t="s">
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4022,28 +4034,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4068,28 +4080,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4380,10 +4392,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
+      <c r="J147" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K147" s="2" t="s">
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4427,28 +4439,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4473,28 +4485,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4727,10 +4739,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
+      <c r="J159" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K159" s="2" t="s">
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4774,28 +4786,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4820,28 +4832,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5016,10 +5028,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
+      <c r="J169" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K169" s="2" t="s">
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5063,28 +5075,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5109,28 +5121,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5363,10 +5375,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
+      <c r="J181" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K181" s="2" t="s">
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
